--- a/Data/Transfermarkt Player Data/contract_info.xlsx
+++ b/Data/Transfermarkt Player Data/contract_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G246"/>
+  <dimension ref="A1:G245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Sweden, Guinea</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1991,17 +1991,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kajus Kontautas</t>
+          <t>G. Matulevičius</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Right Midfield</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€600k</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>G. Matulevičius</t>
+          <t>K. Hadji</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2038,12 +2038,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Comoros, France</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>€600k</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>K. Hadji</t>
+          <t>G. Jarusevičius</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2075,12 +2075,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Comoros, France</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€100k</t>
         </is>
       </c>
     </row>
@@ -2102,17 +2102,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>G. Jarusevičius</t>
+          <t>O. Verbickas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Right Midfield</t>
+          <t>Left Midfield</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>€600k</t>
         </is>
       </c>
     </row>
@@ -2139,17 +2139,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>O. Verbickas</t>
+          <t>K. Bička</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Left Midfield</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>€600k</t>
+          <t>€75k</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>K. Bička</t>
+          <t>D. Salcinovic</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Sweden, Bosnia-Herzegovina</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>€75k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2213,22 +2213,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>D. Salcinovic</t>
+          <t>N. Mihajlović</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Left Winger</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sweden, Bosnia-Herzegovina</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€100k</t>
         </is>
       </c>
     </row>
@@ -2250,22 +2250,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>N. Mihajlović</t>
+          <t>M. Burba</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Right Winger</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>€450k</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>M. Burba</t>
+          <t>A. Fofana</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2297,12 +2297,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Cote d'Ivoire</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>€450k</t>
+          <t>€250k</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>A. Fofana</t>
+          <t>N. Klimavičius</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2334,12 +2334,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>€250k</t>
+          <t>€25k</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>N. Klimavičius</t>
+          <t>P. Matyžonok</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>P. Matyžonok</t>
+          <t>Henrique Devens</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Right Winger</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Brazil, Luxembourg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>€25k</t>
+          <t>€450k</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Henrique Devens</t>
+          <t>M. Chol</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2445,12 +2445,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Brazil, Luxembourg</t>
+          <t>Southern Sudan, United States</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>€450k</t>
+          <t>€300k</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>M. Chol</t>
+          <t>N. Petković</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2482,12 +2482,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Southern Sudan, United States</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2497,34 +2497,34 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>€300k</t>
+          <t>€250k</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>N. Petković</t>
+          <t>L. Paukštė</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>€250k</t>
+          <t>€400k</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>L. Paukštė</t>
+          <t>G. Baliutavičius</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>€400k</t>
+          <t>€300k</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>G. Baliutavičius</t>
+          <t>Paulius Linkevičius</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2601,14 +2601,10 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>€300k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2616,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Paulius Linkevičius</t>
+          <t>Orestas Apočkinas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2630,7 +2626,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2653,17 +2649,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Orestas Apočkinas</t>
+          <t>D. Jarašius</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2671,7 +2667,11 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>-</t>
@@ -2686,17 +2686,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>D. Jarašius</t>
+          <t>M. Dapkus</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€350k</t>
         </is>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>M. Dapkus</t>
+          <t>V. Gašpuitis</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>€350k</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>V. Gašpuitis</t>
+          <t>K. Keršys</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2770,12 +2770,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Lithuania, Latvia</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€125k</t>
         </is>
       </c>
     </row>
@@ -2797,22 +2797,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>K. Keršys</t>
+          <t>S. Sadzoute</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Lithuania, Latvia</t>
+          <t>France, Madagascar</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>€125k</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
@@ -2834,22 +2834,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S. Sadzoute</t>
+          <t>Y. Yefremov</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>France, Madagascar</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€300k</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Y. Yefremov</t>
+          <t>M. Mandić</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2881,12 +2881,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>€300k</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -2908,22 +2908,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>M. Mandić</t>
+          <t>Benny</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2945,22 +2945,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Benny</t>
+          <t>Juozas Radavičius</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2982,17 +2982,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Juozas Radavičius</t>
+          <t>D. Šimkus</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€350k</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>D. Šimkus</t>
+          <t>K. Žebrauskas</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>€350k</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -3056,17 +3056,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>K. Žebrauskas</t>
+          <t>D. Šešplaukis</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Right Midfield</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€450k</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>D. Šešplaukis</t>
+          <t>D. Dovydaitis</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>€450k</t>
+          <t>€300k</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>D. Dovydaitis</t>
+          <t>Gabrielius Micevičius</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>€300k</t>
+          <t>€250k</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Gabrielius Micevičius</t>
+          <t>J. Petravičius</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>€250k</t>
+          <t>€50k</t>
         </is>
       </c>
     </row>
@@ -3204,17 +3204,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>J. Petravičius</t>
+          <t>D. Romanovskij</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Right Midfield</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>€50k</t>
+          <t>€450k</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>D. Romanovskij</t>
+          <t>N. Komissarov</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3251,22 +3251,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>€450k</t>
+          <t>€225k</t>
         </is>
       </c>
     </row>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>N. Komissarov</t>
+          <t>D. Kubilinskas</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3288,22 +3288,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>€225k</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -3315,12 +3315,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>D. Kubilinskas</t>
+          <t>E. Jankauskas</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Left Winger</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€450k</t>
         </is>
       </c>
     </row>
@@ -3352,17 +3352,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>E. Jankauskas</t>
+          <t>A. Klimavičius</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>€450k</t>
+          <t>€175k</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>A. Klimavičius</t>
+          <t>M. Djokic</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3414,34 +3414,34 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>€175k</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>M. Djokic</t>
+          <t>V. Šarkauskas</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€350k</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>V. Šarkauskas</t>
+          <t>A. Bražinskas</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>€350k</t>
+          <t>€300k</t>
         </is>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>A. Bražinskas</t>
+          <t>Rokas Bagdonavičius</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3518,14 +3518,10 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>€300k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3537,17 +3533,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Rokas Bagdonavičius</t>
+          <t>V. Armalas</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3555,10 +3551,14 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€400k</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>V. Armalas</t>
+          <t>N. Đorić</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3580,12 +3580,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>€400k</t>
+          <t>€225k</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>N. Đorić</t>
+          <t>D. Slendzoka</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3617,12 +3617,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>€225k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3644,22 +3644,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>D. Slendzoka</t>
+          <t>J. Mulder</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Israel, Netherlands</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>J. Mulder</t>
+          <t>C. Duke</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3691,12 +3691,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Israel, Netherlands</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
@@ -3718,22 +3718,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>C. Duke</t>
+          <t>K. Upstas</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€400k</t>
         </is>
       </c>
     </row>
@@ -3755,17 +3755,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>K. Upstas</t>
+          <t>D. Antanavičius</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>€400k</t>
+          <t>€300k</t>
         </is>
       </c>
     </row>
@@ -3792,22 +3792,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>D. Antanavičius</t>
+          <t>Abdoul Harouna</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Cote d'Ivoire</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>€300k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3829,22 +3829,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Abdoul Harouna</t>
+          <t>Wesley</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3866,22 +3866,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Wesley</t>
+          <t>L. Kojić</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -3903,22 +3903,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>L. Kojić</t>
+          <t>A. Shchedryi</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Left Midfield</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€300k</t>
         </is>
       </c>
     </row>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>A. Shchedryi</t>
+          <t>D. Kazlauskas</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3950,12 +3950,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>€300k</t>
+          <t>€250k</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>D. Kazlauskas</t>
+          <t>P. Popescu</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Left Midfield</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>€250k</t>
+          <t>€600k</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>P. Popescu</t>
+          <t>Y. Azouazi</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>France, Morocco</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>€600k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Y. Azouazi</t>
+          <t>E. Kaušinis</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Left Winger</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>France, Morocco</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>E. Kaušinis</t>
+          <t>Justas Paštukas</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4125,22 +4125,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Justas Paštukas</t>
+          <t>Léo Ribeiro</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Right Winger</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Léo Ribeiro</t>
+          <t>K. Keliauskas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4172,12 +4172,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€10k</t>
         </is>
       </c>
     </row>
@@ -4199,22 +4199,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>K. Keliauskas</t>
+          <t>A. Njoya</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Right Winger</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>€10k</t>
+          <t>€250k</t>
         </is>
       </c>
     </row>
@@ -4236,22 +4236,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>A. Njoya</t>
+          <t>L. Jonaitis</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>€250k</t>
+          <t>€100k</t>
         </is>
       </c>
     </row>
@@ -4273,32 +4273,32 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>L. Jonaitis</t>
+          <t>R. Yusuf</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Striker</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-12-30</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>€75k</t>
         </is>
       </c>
     </row>
@@ -4310,12 +4310,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>R. Yusuf</t>
+          <t>Dominykas Pašilys</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4325,39 +4325,39 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2026-12-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>€75k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Dominykas Pašilys</t>
+          <t>M. Bertašius</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Striker</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€350k</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>M. Bertašius</t>
+          <t>Armantas Vitkauskas</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>€350k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Armantas Vitkauskas</t>
+          <t>Lukas Grinkevičius</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4458,22 +4458,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Lukas Grinkevičius</t>
+          <t>José Elo</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Equatorial Guinea, Spain</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>José Elo</t>
+          <t>D. Malžinskas</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4505,12 +4505,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Equatorial Guinea, Spain</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>D. Malžinskas</t>
+          <t>Simão Júnior</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Guinea-Bissau, Portugal</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€100k</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Simão Júnior</t>
+          <t>Akpe Victory</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Guinea-Bissau, Portugal</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Akpe Victory</t>
+          <t>S. Praleika</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4616,12 +4616,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4643,22 +4643,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>S. Praleika</t>
+          <t>hugo figueiredo</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Brazil, Portugal</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€300k</t>
         </is>
       </c>
     </row>
@@ -4680,22 +4680,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Hugo Figueiredo</t>
+          <t>N. Žebrauskas</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Brazil, Portugal</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>N. Žebrauskas</t>
+          <t>V. Antužis</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>€300k</t>
+          <t>€275k</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>V. Antužis</t>
+          <t>M. Andrejev</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4764,12 +4764,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Lithuania, Russia</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>€275k</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>M. Andrejev</t>
+          <t>Armandas Razvadauskas</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Lithuania, Russia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4828,17 +4828,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Armandas Razvadauskas</t>
+          <t>M. Ramanauskas</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€400k</t>
         </is>
       </c>
     </row>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>M. Ramanauskas</t>
+          <t>D. Norvilas</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4875,7 +4875,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>€400k</t>
+          <t>€250k</t>
         </is>
       </c>
     </row>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>D. Norvilas</t>
+          <t>K. Toleikis</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>€250k</t>
+          <t>€25k</t>
         </is>
       </c>
     </row>
@@ -4939,17 +4939,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>K. Toleikis</t>
+          <t>M. Ambrazaitis</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Left Midfield</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4976,22 +4976,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>M. Ambrazaitis</t>
+          <t>Aaron Olugbogi</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Left Midfield</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>€25k</t>
+          <t>€400k</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Aaron Olugbogi</t>
+          <t>R. Filipavičius</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5023,12 +5023,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>€400k</t>
+          <t>€250k</t>
         </is>
       </c>
     </row>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>R. Filipavičius</t>
+          <t>V. Magdušauskas</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>€250k</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>V. Magdušauskas</t>
+          <t>n. el harmazi</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5097,12 +5097,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€25k</t>
         </is>
       </c>
     </row>
@@ -5124,32 +5124,32 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>n. el harmazi</t>
+          <t>I. Venckus</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Left Winger</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-12-31</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>€25k</t>
+          <t>€250k</t>
         </is>
       </c>
     </row>
@@ -5161,17 +5161,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>I. Venckus</t>
+          <t>P. Srėbalius</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>P. Srėbalius</t>
+          <t>A. Emsis</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5208,12 +5208,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5223,34 +5223,34 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>€250k</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>A. Emsis</t>
+          <t>V. Krynskyi</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€300k</t>
         </is>
       </c>
     </row>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>V. Krynskyi</t>
+          <t>A. Mickevičius</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>€300k</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
@@ -5309,17 +5309,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>A. Mickevičius</t>
+          <t>N. Paliušis</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€100k</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>N. Paliušis</t>
+          <t>L. Šiaudvytis</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5383,22 +5383,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>L. Šiaudvytis</t>
+          <t>a. litveacov</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Moldova, Ukraine</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>a. litveacov</t>
+          <t>O. Lukošiūnas</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5430,12 +5430,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Moldova, Ukraine</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>O. Lukošiūnas</t>
+          <t>M. Maksymenko</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5467,12 +5467,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€50k</t>
         </is>
       </c>
     </row>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>M. Maksymenko</t>
+          <t>Vladyslav Zagladko</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5514,12 +5514,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-11-30</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>€50k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5531,32 +5531,32 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Vladyslav Zagladko</t>
+          <t>N. Chikovani</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2026-11-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€50k</t>
         </is>
       </c>
     </row>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>N. Chikovani</t>
+          <t>Marat Krasikov</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5578,12 +5578,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Belarus, Lithuania</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>€50k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5605,22 +5605,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Marat Krasikov</t>
+          <t>G. Zabita</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Belarus, Lithuania</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€450k</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>G. Zabita</t>
+          <t>E. Stočkūnas</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>€450k</t>
+          <t>€250k</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>E. Stočkūnas</t>
+          <t>C. Faye</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>€250k</t>
+          <t>€125k</t>
         </is>
       </c>
     </row>
@@ -5716,22 +5716,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>C. Faye</t>
+          <t>I. Koshkosh</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>€125k</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>I. Koshkosh</t>
+          <t>K. Oostenbrink</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5763,12 +5763,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5778,7 +5778,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€100k</t>
         </is>
       </c>
     </row>
@@ -5790,22 +5790,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>K. Oostenbrink</t>
+          <t>R. Banevičius</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>€275k</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>R. Banevičius</t>
+          <t>M. Pavlovski</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5837,22 +5837,22 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>€275k</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>M. Pavlovski</t>
+          <t>D. Ževžikovas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5874,22 +5874,22 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5901,22 +5901,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>D. Ževžikovas</t>
+          <t>A. Baftalovskyi</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Right Winger</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€325k</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>A. Baftalovskyi</t>
+          <t>Obi Jeremiah Chinonso</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5948,22 +5948,22 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-12-31</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>€325k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Obi Jeremiah Chinonso</t>
+          <t>F. Mbaki</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5985,17 +5985,17 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>DR Congo</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6012,12 +6012,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>F. Mbaki</t>
+          <t>D. Kodz</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Right Winger</t>
+          <t>Second Striker</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>DR Congo</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6049,32 +6049,32 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>D. Kodz</t>
+          <t>D. Rakić</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Second Striker</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Bosnia-Herzegovina, Serbia</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€350k</t>
         </is>
       </c>
     </row>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>D. Rakić</t>
+          <t>K. Okoniewski</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6101,17 +6101,17 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Bosnia-Herzegovina, Serbia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>€350k</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>K. Okoniewski</t>
+          <t>T. Hiruma</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6133,49 +6133,49 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>T. Hiruma</t>
+          <t>V. Černiauskas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6185,7 +6185,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€125k</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>V. Černiauskas</t>
+          <t>D. Bukel</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2027-12-31</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>€125k</t>
+          <t>€25k</t>
         </is>
       </c>
     </row>
@@ -6234,17 +6234,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>D. Bukel</t>
+          <t>D. Balsys</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6254,12 +6254,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2027-12-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>€25k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6271,17 +6271,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>D. Balsys</t>
+          <t>j. janusevskis</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€325k</t>
         </is>
       </c>
     </row>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>j. janusevskis</t>
+          <t>L. Klimavičius</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>€325k</t>
+          <t>€125k</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>L. Klimavičius</t>
+          <t>S. Kerkez</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6355,22 +6355,22 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Cyprus, Serbia</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-12-31</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>€125k</t>
+          <t>€100k</t>
         </is>
       </c>
     </row>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>S. Kerkez</t>
+          <t>A. Danté</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6392,22 +6392,22 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Cyprus, Serbia</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>€50k</t>
         </is>
       </c>
     </row>
@@ -6419,22 +6419,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>A. Danté</t>
+          <t>A. Karvatskyi</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>€50k</t>
+          <t>€75k</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>A. Karvatskyi</t>
+          <t>L. Krasniqi</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6466,22 +6466,22 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Kosovo, Belgium</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-12-31</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>€75k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6493,12 +6493,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>L. Krasniqi</t>
+          <t>R. Rasimavičius</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6508,17 +6508,17 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Kosovo, Belgium</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€400k</t>
         </is>
       </c>
     </row>
@@ -6530,17 +6530,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>R. Rasimavičius</t>
+          <t>D. Vaičekauskas</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>€400k</t>
+          <t>€100k</t>
         </is>
       </c>
     </row>
@@ -6567,32 +6567,32 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>D. Vaičekauskas</t>
+          <t>S. Kouadio</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Cote d'Ivoire</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2027-12-31</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>S. Kouadio</t>
+          <t>E. Puikis</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6614,17 +6614,17 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2027-12-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6641,22 +6641,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>E. Puikis</t>
+          <t>Lucas de Vega</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Brazil, Spain</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Lucas de Vega</t>
+          <t>E. Dzinga</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Brazil, Spain</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6715,17 +6715,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>E. Dzinga</t>
+          <t>E. Veliulis</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Left Midfield</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -6752,22 +6752,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>E. Veliulis</t>
+          <t>J. Simon</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Left Midfield</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€100k</t>
         </is>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>J. Simon</t>
+          <t>I. Asante</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6799,17 +6799,17 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Belgium, Ghana</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-12-31</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6826,32 +6826,32 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>I. Asante</t>
+          <t>Elivelto</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Left Winger</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Belgium, Ghana</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -6863,22 +6863,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Elivelto</t>
+          <t>K. Asamoah</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Right Winger</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€50k</t>
         </is>
       </c>
     </row>
@@ -6900,22 +6900,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>K. Asamoah</t>
+          <t>A. Smith</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Right Winger</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>€50k</t>
+          <t>€400k</t>
         </is>
       </c>
     </row>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>A. Smith</t>
+          <t>P. Radunović</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6947,12 +6947,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>€400k</t>
+          <t>€300k</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>P. Radunović</t>
+          <t>F. Steponavičius</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6984,12 +6984,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6999,7 +6999,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>€300k</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -7011,7 +7011,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>F. Steponavičius</t>
+          <t>Job Okpanachi</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7021,12 +7021,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -7036,34 +7036,34 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Job Okpanachi</t>
+          <t>G. Zenkevičius</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€250k</t>
         </is>
       </c>
     </row>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>G. Zenkevičius</t>
+          <t>I. Plūkas</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>€250k</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -7122,7 +7122,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>I. Plūkas</t>
+          <t>Rokas Pačėsa</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7159,17 +7159,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Rokas Pačėsa</t>
+          <t>T. Gumbelevičius</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
@@ -7196,7 +7196,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>T. Gumbelevičius</t>
+          <t>A. Živanović</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7206,12 +7206,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€50k</t>
         </is>
       </c>
     </row>
@@ -7233,22 +7233,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>A. Živanović</t>
+          <t>Ž. Baltrūnas</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>€50k</t>
+          <t>€300k</t>
         </is>
       </c>
     </row>
@@ -7270,17 +7270,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ž. Baltrūnas</t>
+          <t>M. Beneta</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>M. Beneta</t>
+          <t>H. Uzochukwu</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7317,12 +7317,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>€300k</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>H. Uzochukwu</t>
+          <t>D. Pudžemys</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -7354,12 +7354,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€25k</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>D. Pudžemys</t>
+          <t>S. Lawson</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Togo, France</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>€25k</t>
+          <t>€300k</t>
         </is>
       </c>
     </row>
@@ -7418,7 +7418,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>S. Lawson</t>
+          <t>M. Pyrogov</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7428,12 +7428,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Togo, France</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>M. Pyrogov</t>
+          <t>D. Stankevičius</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -7465,12 +7465,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>€300k</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -7492,22 +7492,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>D. Stankevičius</t>
+          <t>F. Tangiri</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7529,22 +7529,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>F. Tangiri</t>
+          <t>K. Sakurai</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7554,7 +7554,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€125k</t>
         </is>
       </c>
     </row>
@@ -7566,22 +7566,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>K. Sakurai</t>
+          <t>Amadou Sabo</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Amadou Sabo</t>
+          <t>S. Sanokho</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7613,22 +7613,22 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>France, Mali</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>€125k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7640,7 +7640,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>S. Sanokho</t>
+          <t>A. Haidara</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7650,17 +7650,17 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>France, Mali</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7677,22 +7677,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>A. Haidara</t>
+          <t>Omran Haydary</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Left Winger</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Afghanistan, Netherlands</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Omran Haydary</t>
+          <t>N. Lukšys</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7724,12 +7724,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Afghanistan, Netherlands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€100k</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>N. Lukšys</t>
+          <t>I. Momoh</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7788,22 +7788,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>I. Momoh</t>
+          <t>L. Zingertas</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Right Winger</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€100k</t>
         </is>
       </c>
     </row>
@@ -7825,17 +7825,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>L. Zingertas</t>
+          <t>N. Petkevičius</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Right Winger</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
@@ -7862,22 +7862,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N. Petkevičius</t>
+          <t>L. Tom</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7887,34 +7887,34 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>L. Tom</t>
+          <t>M. Paukštė</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Striker</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -7924,7 +7924,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>M. Paukštė</t>
+          <t>Danylo Ryabenko</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7946,12 +7946,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€50k</t>
         </is>
       </c>
     </row>
@@ -7973,22 +7973,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Danylo Ryabenko</t>
+          <t>M. Pushkarov</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>€50k</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -8010,7 +8010,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>M. Pushkarov</t>
+          <t>I. Cissé</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8020,12 +8020,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Cote d'Ivoire</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
@@ -8047,7 +8047,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>I. Cissé</t>
+          <t>Daniels Nosegbe-Suško</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8057,12 +8057,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Latvia, England</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8084,22 +8084,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Daniels Nosegbe-Suško</t>
+          <t>D. Trajkovski</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Latvia, England</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>D. Trajkovski</t>
+          <t>V. Kulbachuk</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8131,12 +8131,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -8146,7 +8146,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€25k</t>
         </is>
       </c>
     </row>
@@ -8158,22 +8158,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>V. Kulbachuk</t>
+          <t>Gabriel Castro</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Portugal, Sao Tome and Principe</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>€25k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Gabriel Castro</t>
+          <t>O. Chernozub</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -8205,17 +8205,17 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Portugal, Sao Tome and Principe</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -8232,32 +8232,32 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>O. Chernozub</t>
+          <t>K. Šilkaitis</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€300k</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>K. Šilkaitis</t>
+          <t>L. Ankudinovas</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -8294,7 +8294,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>€300k</t>
+          <t>€275k</t>
         </is>
       </c>
     </row>
@@ -8306,17 +8306,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>L. Ankudinovas</t>
+          <t>Simas Rimantas Patella</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>€275k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8343,17 +8343,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Simas Rimantas Patella</t>
+          <t>V. Piliukaitis</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -8368,7 +8368,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€300k</t>
         </is>
       </c>
     </row>
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>V. Piliukaitis</t>
+          <t>E. Gasiūnas</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -8390,7 +8390,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -8400,12 +8400,12 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>€300k</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -8417,17 +8417,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>E. Gasiūnas</t>
+          <t>D. Vinckus</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Left Midfield</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -8437,12 +8437,12 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€50k</t>
         </is>
       </c>
     </row>
@@ -8454,22 +8454,22 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>D. Vinckus</t>
+          <t>F. Kayramani</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Left Midfield</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -8479,7 +8479,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>€50k</t>
+          <t>€100k</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>F. Kayramani</t>
+          <t>H. Yamada</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -8501,12 +8501,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>H. Yamada</t>
+          <t>M. Vasiliauskas</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -8538,12 +8538,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>€50k</t>
         </is>
       </c>
     </row>
@@ -8565,22 +8565,22 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>M. Vasiliauskas</t>
+          <t>O. Kurtsev</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Left Winger</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>€50k</t>
+          <t>€75k</t>
         </is>
       </c>
     </row>
@@ -8602,32 +8602,32 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>O. Kurtsev</t>
+          <t>David Anane Martin</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Right Winger</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>€75k</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -8639,32 +8639,32 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>David Anane Martin</t>
+          <t>S. Urbys</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Right Winger</t>
+          <t>Second Striker</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2025-11-15</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€125k</t>
         </is>
       </c>
     </row>
@@ -8676,22 +8676,22 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>S. Urbys</t>
+          <t>A. Baghdasaryan</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Second Striker</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Armenia, Latvia</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -8701,44 +8701,44 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>€125k</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>A. Baghdasaryan</t>
+          <t>G. Innocent</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Armenia, Latvia</t>
+          <t>Haiti, France</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-11-30</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€50k</t>
         </is>
       </c>
     </row>
@@ -8750,7 +8750,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>G. Innocent</t>
+          <t>Kajus Andraikėnas</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8760,22 +8760,22 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Haiti, France</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2026-11-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>€50k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8787,17 +8787,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Kajus Andraikėnas</t>
+          <t>N. Stankevičius</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -8807,12 +8807,12 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>N. Stankevičius</t>
+          <t>N. Håkansson</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8834,22 +8834,22 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€100k</t>
         </is>
       </c>
     </row>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>N. Håkansson</t>
+          <t>M. Rutkovskis</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8871,22 +8871,22 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2027-06-30</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>€50k</t>
         </is>
       </c>
     </row>
@@ -8898,7 +8898,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>M. Rutkovskis</t>
+          <t>K. Stankevicius</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -8918,12 +8918,12 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2027-06-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>€50k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8935,22 +8935,22 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>K. Stankevicius</t>
+          <t>J. Wawszczyk</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -8972,32 +8972,32 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>J. Wawszczyk</t>
+          <t>R. Stewart</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Singapore, Wales</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€150k</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>R. Stewart</t>
+          <t>G. Gumbaravičius</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -9024,17 +9024,17 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Singapore, Wales</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -9046,22 +9046,22 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>G. Gumbaravičius</t>
+          <t>B. Mulahalilovic</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Austria, Bosnia-Herzegovina</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€250k</t>
         </is>
       </c>
     </row>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>B. Mulahalilovic</t>
+          <t>R. Stanulevičius</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -9093,22 +9093,22 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Austria, Bosnia-Herzegovina</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>€250k</t>
+          <t>€100k</t>
         </is>
       </c>
     </row>
@@ -9120,17 +9120,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>R. Stanulevičius</t>
+          <t>S. Civilka</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -9140,12 +9140,12 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -9157,17 +9157,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>S. Civilka</t>
+          <t>A. Sveistrys</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>A. Sveistrys</t>
+          <t>D. Rimpa</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -9231,22 +9231,22 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>D. Rimpa</t>
+          <t>l. sajcic</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Serbia, Croatia</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€175k</t>
         </is>
       </c>
     </row>
@@ -9268,12 +9268,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Lazar Sajcic</t>
+          <t>l. estevez fernandez</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Right Winger</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Serbia, Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -9293,7 +9293,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>€175k</t>
+          <t>€200k</t>
         </is>
       </c>
     </row>
@@ -9305,22 +9305,22 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>l. estevez fernandez</t>
+          <t>M. Mikulėnas</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Right Winger</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -9330,7 +9330,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€100k</t>
         </is>
       </c>
     </row>
@@ -9342,17 +9342,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>M. Mikulėnas</t>
+          <t>A. Kaulinis</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -9379,7 +9379,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>A. Kaulinis</t>
+          <t>A. Galita</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -9389,17 +9389,17 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>France, Guadeloupe</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2027-11-30</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>A. Galita</t>
+          <t>J. Usavičius</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -9431,12 +9431,12 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>France, Guadeloupe</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2027-11-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -9453,7 +9453,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>J. Usavičius</t>
+          <t>E. Zdanovič</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -9477,43 +9477,6 @@
         </is>
       </c>
       <c r="G245" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Riteriai</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>E. Zdanovič</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Striker</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Lithuania</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="G246" t="inlineStr">
         <is>
           <t>-</t>
         </is>
